--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_130.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_130.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.66</v>
+        <v>1.7808</v>
       </c>
       <c r="J3" t="n">
-        <v>12.86</v>
+        <v>25.47</v>
       </c>
       <c r="K3" t="n">
-        <v>383.3</v>
+        <v>814.41</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="R3" t="n">
-        <v>793.3066</v>
+        <v>836.7643</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5278</v>
+        <v>1.6665</v>
       </c>
       <c r="J4" t="n">
-        <v>22.49</v>
+        <v>14.44</v>
       </c>
       <c r="K4" t="n">
-        <v>616.78</v>
+        <v>431.93</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="R4" t="n">
-        <v>753.0977</v>
+        <v>763.3214</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6279</v>
+        <v>7.1307</v>
       </c>
       <c r="J5" t="n">
-        <v>26.75</v>
+        <v>26.48</v>
       </c>
       <c r="K5" t="n">
-        <v>3183.28</v>
+        <v>3389.45</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>7.25</v>
+        <v>7.9</v>
       </c>
       <c r="R5" t="n">
-        <v>2840.2707</v>
+        <v>2927.6845</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>7.9964</v>
+        <v>8.733000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>26.37</v>
+        <v>26.29</v>
       </c>
       <c r="K6" t="n">
-        <v>3786.45</v>
+        <v>4122</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>5.84</v>
+        <v>6.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2289.4231</v>
+        <v>2493.1233</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7345</v>
+        <v>4.055</v>
       </c>
       <c r="J7" t="n">
-        <v>31.02</v>
+        <v>30.92</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.81</v>
+        <v>2251.29</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.31</v>
+        <v>4.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1687.8946</v>
+        <v>1830.9434</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>42.6412</v>
+        <v>47.1597</v>
       </c>
       <c r="J8" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="K8" t="n">
-        <v>3095.48</v>
+        <v>3439.41</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>7.86</v>
+        <v>9.08</v>
       </c>
       <c r="R8" t="n">
-        <v>3079.9411</v>
+        <v>3363.8619</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>11.5486</v>
+        <v>14.5705</v>
       </c>
       <c r="J9" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="K9" t="n">
-        <v>392.16</v>
+        <v>474.43</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="R9" t="n">
-        <v>314.3777</v>
+        <v>379.0585</v>
       </c>
     </row>
   </sheetData>
